--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/TurnoverWithDynamicsFinanceReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/TurnoverWithDynamicsFinanceReport.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\1965\Reports\Sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D136A-146A-4F37-8902-38D843CE628F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7806369A-14ED-4795-A9CF-3E5958CC4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3360" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ReportTotal_DynamicColumns">Sheet1!$C$8</definedName>
-    <definedName name="Rows">Sheet1!$A$10:$H$11</definedName>
-    <definedName name="Rows_DynamicColumns">Sheet1!$C$10</definedName>
-    <definedName name="Slices">Sheet1!$C$7:$D$7</definedName>
+    <definedName name="ReportTotal_DynamicColumns">Sheet1!$C$9</definedName>
+    <definedName name="Rows">Sheet1!$A$11:$H$12</definedName>
+    <definedName name="Rows_DynamicColumns">Sheet1!$C$11</definedName>
+    <definedName name="Slices">Sheet1!$C$8:$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Изменение в {{DynamicsInStringShort}}</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>{{item.LastSaleDetails != null ? item.LastSaleDetails.WarhouseResidue.ToString("0") : ""}}</t>
+  </si>
+  <si>
+    <t>Группировка: Номенклатура</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,32 +188,20 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -222,7 +213,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,184 +557,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="2" sqref="C8 C10:D10 D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="46" style="7" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="22.140625" style="7" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="7"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46" style="5" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="22.140625" style="5" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="5"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="16"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="I5" s="2" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="I5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="97.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="97.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D8" s="9" t="str">
         <f>$B$1</f>
         <v>Изменение в {{DynamicsInStringShort}}</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10"/>
+      <c r="J11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -733,9 +760,9 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="I5:Q5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:D10">
+  <conditionalFormatting sqref="A11:D11">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$A10=0</formula>
+      <formula>$A11=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75208333333333299" bottom="0.75208333333333299" header="0.511811023622047" footer="0.511811023622047"/>
